--- a/crop classification/crop_classification.xlsx
+++ b/crop classification/crop_classification.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/43c11e1dc9dd479a/Documents/GitHub/ISRO_lunar_surface/crop classification/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_F25DC773A252ABDACC1048BEE9186F985ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67AF30B3-EAEE-424F-B852-3222C71A406B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,243 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+  <si>
+    <t>serial number</t>
+  </si>
+  <si>
+    <t>references</t>
+  </si>
+  <si>
+    <t>objective</t>
+  </si>
+  <si>
+    <t>methodology</t>
+  </si>
+  <si>
+    <t>pros</t>
+  </si>
+  <si>
+    <t>cons</t>
+  </si>
+  <si>
+    <t>perfomance metrices</t>
+  </si>
+  <si>
+    <t>Advances in crop fine classification based on
+Hyperspectral Remote Sensing</t>
+  </si>
+  <si>
+    <t>The application of hyperspectral remote sensing in crop fine classification is summarised in this paper, along with a list of the hyperspectral data sources that are frequently used for crop fine classification both domestically and internationally, including Hyperion data, environmental satellite data, CASI data, and OMIS data. The applicability of various data is also examined. In addition, the characteristics of various classification techniques are examined. The methods of crop fine classification using hyperspectral remote sensing are summarised, including decision tree classification, support vector machine classification, multi-classifier integration, spatial-spectral feature classification, and hyperspectral data and radar data fusion classification.</t>
+  </si>
+  <si>
+    <t>high dimension of hyperspectral data, large data redundancy, strong inter-band correlation, and large workload of data processing When using multi-spectral
+remote sensing to classify and recognize crop varieties, fragments and topographic fluctuations, the classification accuracy is often low</t>
+  </si>
+  <si>
+    <t>classification accuracy</t>
+  </si>
+  <si>
+    <t>The research on crop fine classification based on
+hyperspectral remote sensing has made some achievements
+in data sources, data dimension reduction methods and
+classifiers at home and abroad. Hyperspectral remote sensing
+has also been widely used in crop fine classification and
+recognition.</t>
+  </si>
+  <si>
+    <t>Classification of Growth Conditions in Paprika Leaf
+Using Deep Neural Network and Hyperspectral Images</t>
+  </si>
+  <si>
+    <t>This study
+presents the classification method of crop’s leaf growth condition
+using hyperspectral image(HSI) and Deep Neural Network(DNN).</t>
+  </si>
+  <si>
+    <t>Acquisition stage of HSI data, Data preprocessing stage for input of DNN, Classifier learning stage</t>
+  </si>
+  <si>
+    <t>precision, recall, F-measure, and accuracy were evaluated based
+on the confusion matrix.</t>
+  </si>
+  <si>
+    <t>DNN can be
+found to classify leaves comparatively well under the condition
+of many spectrum bands with HSI.</t>
+  </si>
+  <si>
+    <t>Fine Classification of Typical Farms in Southern
+China Based on Airborne Hyperspectral Remote
+Sensing Images</t>
+  </si>
+  <si>
+    <t>In this paper, typical southern farm in Honghu
+City, Hubei Province are taken as an example, adopting the platform
+of unmanned aerial vehicle (UAV) to carry hyperspectral
+imaging spectrometer to obtain the 'double high' (high
+spectral and high spatial resolution) images at the same
+time. The classification algorithm uses convolution neural
+network to automatically extract the high-level abstract
+features, and conditional random field is used for
+classification.</t>
+  </si>
+  <si>
+    <t>Convolutional Neural Networks, Conditional Random Fields, Methodology of CNN-CRF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accuracy and Kappa score </t>
+  </si>
+  <si>
+    <t>combination of CNN and CRF classification algorithms is used to
+achieve much better classification accuracy than SVM,
+which can provide a reference for the fine classification of
+this diversified planting pattern.</t>
+  </si>
+  <si>
+    <t>Hyperspectral Identification and Classification of
+Oilseed Rape Waterlogging Stress Levels
+Using Parallel Computing</t>
+  </si>
+  <si>
+    <t>This paper aims to evaluate the feasibility and performance of two related applications in
+agricultural big data: hyperspectral imaging and parallel computing.</t>
+  </si>
+  <si>
+    <t>The methods involved
+in this analysis are as follows: ROI selection, data preprocessing,
+format conversion of hyperspectral data, use of
+the Machine Learning Library (MLlib) to realize arti cial
+neural network (ANN) and support vector machine (SVM)
+algorithms, multi-class and binary classi cation analyses on
+hyperspectral data and optimal wavebands,</t>
+  </si>
+  <si>
+    <t>using the parallel computing platform and hyperspectral
+data to solve a multi-class problem involving, the ANN
+algorithm exhibited higher accuracy than the SVM algorithm.</t>
+  </si>
+  <si>
+    <t>accuracy and F-SCORE, Speedup scaleup and sizeup</t>
+  </si>
+  <si>
+    <t>HYPERSPECTRAL IMAGE CLASSIFICATION
+BASED ON SPECTRAL MIXTURE ANALYSIS FOR CROP TYPE DETERMINATION</t>
+  </si>
+  <si>
+    <t>In this study, we analyzed crop
+types using hyperspectral image data collected by a ground
+scanner.</t>
+  </si>
+  <si>
+    <t>unmixing based algorithms were implemented to estimate
+endmember without ground spectrometer data. N-FINDR, VCA, and SISAL algorithms and
+classification process for crop types by analyzing abundance
+maps</t>
+  </si>
+  <si>
+    <t>Overall accuracy</t>
+  </si>
+  <si>
+    <t>The result of SISAL presented high
+accuracy close to the result of manually collected
+endmembers for green/red crop determination, and the VCA
+result had the highest accuracy for discriminating lettuce and
+perilla leaf.</t>
+  </si>
+  <si>
+    <t>The hyperspectral image data in this study
+includes limited kinds of crops and image size, so we need to
+evaluate on more hyperspectral data to analyze the
+performance.</t>
+  </si>
+  <si>
+    <t>MULTIPLE FEATURE FUSION FOR FINE CLASSIFICATION OF CROPS IN UAV
+HYPERSPECTRAL IMAGERY</t>
+  </si>
+  <si>
+    <t>the GLCM texture, morphological profile, and
+endmember abundance feature, are extracted. Meanwhile,
+three fusion strategies, namely decision fusion, probability
+fusion, and stacking fusion, are employed to obtain the
+classification results</t>
+  </si>
+  <si>
+    <t>multiple feature fusion method for
+fine classification of crops in UAV hyperspectral imagery.</t>
+  </si>
+  <si>
+    <t>Overall Accuracy (OA), KAPPA coefficient, and accuracy
+of each category are used to evaluate the classification
+performance.</t>
+  </si>
+  <si>
+    <t>The experiments conducted on the
+Honghu Dataset prove the feasibility of the multiple
+feature fusion method, and the feature stacking approach
+give the best result.</t>
+  </si>
+  <si>
+    <t>the result of endmember abundance feature is
+unsatisfactory.</t>
+  </si>
+  <si>
+    <t>POLYGONAL PARTITION-BASED HYPERSPECTRAL IMAGE CLASSIFICATION WITH
+SINGLE LABELED SAMPLE</t>
+  </si>
+  <si>
+    <t>Polygonal Partition, multiscale polygonal
+partition is applied on the first three components of the HSI.
+Then, a spectral similarity-based sample expansion method
+is proposed to obtain more labeled samples. Next, a pixelwise
+classifier, the support vector machine (SVM), is used to
+acquire an initial classification result. Finally, classification
+result is further optimized according to the partition maps</t>
+  </si>
+  <si>
+    <t>To propose a novel hyperspectral image classification
+method for crop mapping with single training sample</t>
+  </si>
+  <si>
+    <t>the boundaries
+between different objects in the classification map are well aligned with the original image. Furthermore, the proposed method obtains satisfactory classification performance even when the training sample per class is one. It is also suitable
+for solving small labeled sample size problem</t>
+  </si>
+  <si>
+    <t>three commonly used
+measures, OA, AA, and Kappa coefficient, are adopted.</t>
+  </si>
+  <si>
+    <t>Significance of Morphological Features in Rice
+Variety Classification Using Hyperspectral Imaging</t>
+  </si>
+  <si>
+    <t>In this paper, we demonstrate
+the significance of morphological and border related features
+used in addition to spectral information and propose a feature
+set that provides a substantial improvement in classification
+results.</t>
+  </si>
+  <si>
+    <t>RGB image Preprocessing and Rice Seed Segmentation, Spatial Feature Extraction, Spectral Preprocessing and Feature Extraction,Dimensionality Reduction, Rice Seed Variety Classifier</t>
+  </si>
+  <si>
+    <t>Three metrics are used to evaluate classification
+performance, precision, recall and F1 score</t>
+  </si>
+  <si>
+    <t>the proposed
+feature set provides significant improvement over the existing
+approaches in the literature and achieves a competitive
+classification performance with F1 score of 85.65% on the
+task of classifying a large number of 90 rice seed varieties.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +290,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +574,214 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="63.28515625" customWidth="1"/>
+    <col min="4" max="4" width="61.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="162" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>